--- a/07-13-25 to 07-19-25 Madison Schedule.xlsx
+++ b/07-13-25 to 07-19-25 Madison Schedule.xlsx
@@ -4113,7 +4113,12 @@
           <t>Emily L</t>
         </is>
       </c>
-      <c r="K72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>Driver,
+Gray Van</t>
+        </is>
+      </c>
       <c r="L72" t="inlineStr"/>
       <c r="M72" t="inlineStr"/>
       <c r="N72" t="inlineStr"/>

--- a/07-13-25 to 07-19-25 Madison Schedule.xlsx
+++ b/07-13-25 to 07-19-25 Madison Schedule.xlsx
@@ -1856,7 +1856,7 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
@@ -1936,12 +1936,13 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>DJ</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Rx</t>
         </is>
       </c>
       <c r="P27" t="inlineStr"/>
@@ -2015,7 +2016,7 @@
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
@@ -2095,13 +2096,12 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>@ Store,
-Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P29" t="inlineStr"/>
@@ -2168,21 +2168,9 @@
         </is>
       </c>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>15)</t>
-        </is>
-      </c>
-      <c r="N30" t="inlineStr">
-        <is>
-          <t>Leyna</t>
-        </is>
-      </c>
-      <c r="O30" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="inlineStr"/>
+      <c r="O30" t="inlineStr"/>
       <c r="P30" t="inlineStr"/>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2235,21 +2223,9 @@
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>16)</t>
-        </is>
-      </c>
-      <c r="N31" t="inlineStr">
-        <is>
-          <t>Paul</t>
-        </is>
-      </c>
-      <c r="O31" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="inlineStr"/>
+      <c r="O31" t="inlineStr"/>
       <c r="P31" t="inlineStr"/>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2303,7 +2279,11 @@
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr"/>
-      <c r="N32" t="inlineStr"/>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>6:00 AM START</t>
+        </is>
+      </c>
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr"/>
       <c r="Q32" t="inlineStr">
@@ -2358,7 +2338,11 @@
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr"/>
-      <c r="N33" t="inlineStr"/>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>DC5-FINANCIAL</t>
+        </is>
+      </c>
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="inlineStr"/>
       <c r="Q33" t="inlineStr"/>
@@ -2416,7 +2400,7 @@
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>PIGGLY WIGGLY #038, MENASHA</t>
         </is>
       </c>
       <c r="O34" t="inlineStr"/>
@@ -2471,7 +2455,7 @@
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>1151 MIDWAY RD</t>
         </is>
       </c>
       <c r="O35" t="inlineStr"/>
@@ -2518,7 +2502,7 @@
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr">
         <is>
-          <t>PIGGLY WIGGLY #038, MENASHA</t>
+          <t>https://goo.gl/maps/ufFM5TycoD42</t>
         </is>
       </c>
       <c r="O36" t="inlineStr"/>
@@ -2565,7 +2549,7 @@
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr">
         <is>
-          <t>1151 MIDWAY RD</t>
+          <t>LIQUOR RESET-REMAPPED</t>
         </is>
       </c>
       <c r="O37" t="inlineStr"/>
@@ -2614,11 +2598,7 @@
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr"/>
-      <c r="N38" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/ufFM5TycoD42</t>
-        </is>
-      </c>
+      <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr"/>
       <c r="P38" t="inlineStr"/>
       <c r="Q38" t="inlineStr"/>
@@ -2669,13 +2649,21 @@
       </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>LIQUOR RESET-REMAPPED</t>
-        </is>
-      </c>
-      <c r="O39" t="inlineStr"/>
+          <t>Jerry S</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="P39" t="inlineStr"/>
       <c r="Q39" t="inlineStr"/>
       <c r="R39" t="inlineStr">
@@ -2720,9 +2708,21 @@
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
-      <c r="N40" t="inlineStr"/>
-      <c r="O40" t="inlineStr"/>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P40" t="inlineStr"/>
       <c r="Q40" t="inlineStr"/>
       <c r="R40" t="inlineStr">
@@ -2782,17 +2782,17 @@
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>Jerry S</t>
+          <t>Kirsten</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>@ Store, Equip</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P41" t="inlineStr"/>
@@ -2849,12 +2849,12 @@
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Madison</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
@@ -2909,12 +2909,12 @@
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>Kirsten</t>
+          <t>Mai</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
@@ -2960,12 +2960,12 @@
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>Madison</t>
+          <t>Marcia</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
@@ -3023,12 +3023,12 @@
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>Mai</t>
+          <t>Michelle</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
@@ -3094,12 +3094,12 @@
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>Marcia</t>
+          <t>Nikki</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
@@ -3149,12 +3149,12 @@
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>Michelle</t>
+          <t>Taya</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
@@ -3208,12 +3208,12 @@
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>Nikki</t>
+          <t>Terri</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
@@ -3274,21 +3274,9 @@
       </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>9)</t>
-        </is>
-      </c>
-      <c r="N49" t="inlineStr">
-        <is>
-          <t>Taya</t>
-        </is>
-      </c>
-      <c r="O49" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="inlineStr"/>
+      <c r="O49" t="inlineStr"/>
       <c r="P49" t="inlineStr"/>
       <c r="Q49" t="inlineStr">
         <is>
@@ -3337,21 +3325,9 @@
       </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>10)</t>
-        </is>
-      </c>
-      <c r="N50" t="inlineStr">
-        <is>
-          <t>Terri</t>
-        </is>
-      </c>
-      <c r="O50" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="inlineStr"/>
+      <c r="O50" t="inlineStr"/>
       <c r="P50" t="inlineStr"/>
       <c r="Q50" t="inlineStr"/>
       <c r="R50" t="inlineStr"/>
@@ -3381,7 +3357,11 @@
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr"/>
-      <c r="N51" t="inlineStr"/>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>6:30 AM START</t>
+        </is>
+      </c>
       <c r="O51" t="inlineStr"/>
       <c r="P51" t="inlineStr"/>
       <c r="Q51" t="inlineStr"/>
@@ -3412,7 +3392,11 @@
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr"/>
-      <c r="N52" t="inlineStr"/>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>MODAS-SCAN</t>
+        </is>
+      </c>
       <c r="O52" t="inlineStr"/>
       <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr"/>
@@ -3445,7 +3429,7 @@
       <c r="M53" t="inlineStr"/>
       <c r="N53" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>KELLEY #41, WINNEBAGO MOBIL</t>
         </is>
       </c>
       <c r="O53" t="inlineStr"/>
@@ -3480,7 +3464,7 @@
       <c r="M54" t="inlineStr"/>
       <c r="N54" t="inlineStr">
         <is>
-          <t>MODAS-SCAN</t>
+          <t>903 N ELIDA ST</t>
         </is>
       </c>
       <c r="O54" t="inlineStr"/>
@@ -3515,7 +3499,7 @@
       <c r="M55" t="inlineStr"/>
       <c r="N55" t="inlineStr">
         <is>
-          <t>KELLEY #41, WINNEBAGO MOBIL</t>
+          <t>https://goo.gl/maps/2n1o2yip8H52</t>
         </is>
       </c>
       <c r="O55" t="inlineStr"/>
@@ -3550,7 +3534,7 @@
       <c r="M56" t="inlineStr"/>
       <c r="N56" t="inlineStr">
         <is>
-          <t>903 N ELIDA ST</t>
+          <t>Please be careful to scan only product barcodes, and not the shelf scan tags</t>
         </is>
       </c>
       <c r="O56" t="inlineStr"/>
@@ -3579,11 +3563,7 @@
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr"/>
-      <c r="N57" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/2n1o2yip8H52</t>
-        </is>
-      </c>
+      <c r="N57" t="inlineStr"/>
       <c r="O57" t="inlineStr"/>
       <c r="P57" t="inlineStr"/>
       <c r="Q57" t="inlineStr"/>
@@ -3621,13 +3601,21 @@
         </is>
       </c>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr"/>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>Please be careful to scan only product barcodes, and not the shelf scan tags</t>
-        </is>
-      </c>
-      <c r="O58" t="inlineStr"/>
+          <t>Mike G</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="P58" t="inlineStr"/>
       <c r="Q58" t="inlineStr"/>
       <c r="R58" t="inlineStr"/>
@@ -3660,8 +3648,16 @@
       </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr"/>
-      <c r="N59" t="inlineStr"/>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>Angela</t>
+        </is>
+      </c>
       <c r="O59" t="inlineStr"/>
       <c r="P59" t="inlineStr"/>
       <c r="Q59" t="inlineStr"/>
@@ -3689,19 +3685,15 @@
       <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>Mike G</t>
-        </is>
-      </c>
-      <c r="O60" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+          <t>Emily L</t>
+        </is>
+      </c>
+      <c r="O60" t="inlineStr"/>
       <c r="P60" t="inlineStr"/>
       <c r="Q60" t="inlineStr"/>
       <c r="R60" t="inlineStr"/>
@@ -3728,12 +3720,12 @@
       <c r="L61" t="inlineStr"/>
       <c r="M61" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>Angela</t>
+          <t>Laci</t>
         </is>
       </c>
       <c r="O61" t="inlineStr"/>
@@ -3767,12 +3759,12 @@
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>Emily L</t>
+          <t>Spencer P</t>
         </is>
       </c>
       <c r="O62" t="inlineStr"/>
@@ -3806,12 +3798,12 @@
       <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>Laci</t>
+          <t>Tina E</t>
         </is>
       </c>
       <c r="O63" t="inlineStr"/>
@@ -3843,16 +3835,8 @@
       </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr">
-        <is>
-          <t>5)</t>
-        </is>
-      </c>
-      <c r="N64" t="inlineStr">
-        <is>
-          <t>Spencer P</t>
-        </is>
-      </c>
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="inlineStr"/>
       <c r="O64" t="inlineStr"/>
       <c r="P64" t="inlineStr"/>
       <c r="Q64" t="inlineStr"/>
@@ -3882,16 +3866,8 @@
       </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr">
-        <is>
-          <t>6)</t>
-        </is>
-      </c>
-      <c r="N65" t="inlineStr">
-        <is>
-          <t>Tina E</t>
-        </is>
-      </c>
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="inlineStr"/>
       <c r="O65" t="inlineStr"/>
       <c r="P65" t="inlineStr"/>
       <c r="Q65" t="inlineStr"/>

--- a/07-13-25 to 07-19-25 Madison Schedule.xlsx
+++ b/07-13-25 to 07-19-25 Madison Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y75"/>
+  <dimension ref="A1:Y63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1126,7 +1126,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="K17" t="inlineStr"/>
@@ -1197,7 +1197,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Josh S</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="K18" t="inlineStr"/>
@@ -1286,16 +1286,10 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Red Camry,
-Supv Rx</t>
-        </is>
-      </c>
+          <t>Josh S</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr">
         <is>
@@ -1371,10 +1365,16 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Kayla</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr"/>
+          <t>Justin Lee</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Red Camry,
+Supv Rx</t>
+        </is>
+      </c>
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr">
         <is>
@@ -1442,15 +1442,10 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Michael N</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Red Camry</t>
-        </is>
-      </c>
+          <t>Kayla</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr">
         <is>
@@ -1523,13 +1518,13 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Nate</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Driver,
-Optima</t>
+          <t>Driver, 1/2
+Red Camry</t>
         </is>
       </c>
       <c r="L22" t="inlineStr"/>
@@ -1605,12 +1600,13 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>Nate</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>Driver,
+Optima</t>
         </is>
       </c>
       <c r="L23" t="inlineStr"/>
@@ -1690,7 +1686,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>DJ</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -1762,13 +1758,12 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>DJ</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>@ Store,
-Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="L25" t="inlineStr"/>
@@ -1840,12 +1835,13 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Rx</t>
         </is>
       </c>
       <c r="L26" t="inlineStr"/>
@@ -1920,7 +1916,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Lexi</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -2000,7 +1996,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Lexi</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -2080,7 +2076,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -2159,7 +2155,7 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -2219,9 +2215,21 @@
       </c>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>17)</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>Sonia</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr"/>
@@ -2330,11 +2338,7 @@
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>6:30 AM START</t>
-        </is>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr"/>
@@ -2392,7 +2396,7 @@
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>6:30 AM START</t>
         </is>
       </c>
       <c r="K34" t="inlineStr"/>
@@ -2447,7 +2451,7 @@
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr">
         <is>
-          <t>KELLEY #47, FISH HATCHERY MOBIL, MADISON</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="K35" t="inlineStr"/>
@@ -2494,7 +2498,7 @@
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr">
         <is>
-          <t>2956 FISH HATCHERY RD</t>
+          <t>KELLEY #47, FISH HATCHERY MOBIL, MADISON</t>
         </is>
       </c>
       <c r="K36" t="inlineStr"/>
@@ -2541,7 +2545,7 @@
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/vTRibsJKTQs</t>
+          <t>2956 FISH HATCHERY RD</t>
         </is>
       </c>
       <c r="K37" t="inlineStr"/>
@@ -2592,7 +2596,7 @@
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Please be careful to scan only product barcodes, and not the shelf scan tags</t>
+          <t>https://goo.gl/maps/vTRibsJKTQs</t>
         </is>
       </c>
       <c r="K38" t="inlineStr"/>
@@ -2644,7 +2648,7 @@
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr">
         <is>
-          <t xml:space="preserve">*IL Meet is 5:15 am at IL office </t>
+          <t>Please be careful to scan only product barcodes, and not the shelf scan tags</t>
         </is>
       </c>
       <c r="K39" t="inlineStr"/>
@@ -2705,7 +2709,11 @@
       </c>
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">*IL Meet is 5:15 am at IL office </t>
+        </is>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr">
@@ -2763,22 +2771,9 @@
         </is>
       </c>
       <c r="H41" t="inlineStr"/>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>Qiana</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>@ Store,
-Camry 3, Equip</t>
-        </is>
-      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr">
         <is>
@@ -2837,15 +2832,20 @@
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Angela</t>
-        </is>
-      </c>
-      <c r="K42" t="inlineStr"/>
+          <t>Qiana</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>@ Store,
+Camry 3, Equip</t>
+        </is>
+      </c>
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr">
         <is>
@@ -2892,20 +2892,15 @@
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Ashley P</t>
-        </is>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>Driver,
-Silver Van</t>
-        </is>
-      </c>
+          <t>Angela</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr">
         <is>
@@ -2948,15 +2943,20 @@
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Eva</t>
-        </is>
-      </c>
-      <c r="K44" t="inlineStr"/>
+          <t>Ashley P</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>Driver,
+Silver Van</t>
+        </is>
+      </c>
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr">
         <is>
@@ -3007,7 +3007,7 @@
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -3078,12 +3078,12 @@
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Savannah</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -3143,9 +3143,21 @@
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr"/>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>6)</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr">
         <is>
@@ -3267,11 +3279,7 @@
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>7:00 AM START</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr"/>
@@ -3320,7 +3328,7 @@
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t xml:space="preserve">6:30 AM START </t>
         </is>
       </c>
       <c r="K50" t="inlineStr"/>
@@ -3351,7 +3359,7 @@
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr">
         <is>
-          <t>SALE INVENTORY</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="K51" t="inlineStr"/>
@@ -3386,7 +3394,7 @@
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr">
         <is>
-          <t>CONTACT IS SUJAN MALLA (HE'S BUYING THIS STORE)</t>
+          <t>KELLEY #09, BROADWAY MOBIL, ROCKFORD</t>
         </is>
       </c>
       <c r="K52" t="inlineStr"/>
@@ -3421,7 +3429,7 @@
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr">
         <is>
-          <t>PLAIN ONE STOP MOBIL, PLAIN</t>
+          <t>2605 BROADWAY</t>
         </is>
       </c>
       <c r="K53" t="inlineStr"/>
@@ -3456,7 +3464,7 @@
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr">
         <is>
-          <t>1125 WACHTER AVE</t>
+          <t>https://goo.gl/maps/o8A3d3WmDrS2</t>
         </is>
       </c>
       <c r="K54" t="inlineStr"/>
@@ -3491,7 +3499,7 @@
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/dMH6ZDvNM4WwDXGt8</t>
+          <t xml:space="preserve">Please be careful to scan only product barcodes, and not the shelf scan tags </t>
         </is>
       </c>
       <c r="K55" t="inlineStr"/>
@@ -3526,7 +3534,7 @@
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr">
         <is>
-          <t>6:15 am meet for Sarah &amp; Lori at **Festival Foods Baraboo</t>
+          <t xml:space="preserve">*IL Meet is 6:15 am at IL office </t>
         </is>
       </c>
       <c r="K56" t="inlineStr"/>
@@ -3559,7 +3567,11 @@
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>*Emily, Laci, Spencer - please meet at the office so we don't overload parking lot</t>
+        </is>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr"/>
@@ -3585,21 +3597,9 @@
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr"/>
-      <c r="I58" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="J58" t="inlineStr">
-        <is>
-          <t>Sarah</t>
-        </is>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>Driver, Equip</t>
-        </is>
-      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr">
         <is>
@@ -3638,15 +3638,19 @@
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Lori</t>
-        </is>
-      </c>
-      <c r="K59" t="inlineStr"/>
+          <t>Mike G</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr">
         <is>
@@ -3679,9 +3683,22 @@
       <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr"/>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>Emily L</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>Driver,
+Gray Van</t>
+        </is>
+      </c>
       <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr">
         <is>
@@ -3714,8 +3731,16 @@
       <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr"/>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>Laci</t>
+        </is>
+      </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
       <c r="M61" t="inlineStr">
@@ -3749,10 +3774,14 @@
       <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr"/>
-      <c r="I62" t="inlineStr"/>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t xml:space="preserve">6:30 AM START </t>
+          <t>Spencer P</t>
         </is>
       </c>
       <c r="K62" t="inlineStr"/>
@@ -3788,13 +3817,21 @@
       <c r="F63" t="inlineStr"/>
       <c r="G63" t="inlineStr"/>
       <c r="H63" t="inlineStr"/>
-      <c r="I63" t="inlineStr"/>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>5)</t>
+        </is>
+      </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>MODAS-SCAN</t>
-        </is>
-      </c>
-      <c r="K63" t="inlineStr"/>
+          <t>Tina E</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr">
         <is>
@@ -3818,407 +3855,6 @@
       <c r="X63" t="inlineStr"/>
       <c r="Y63" t="inlineStr"/>
     </row>
-    <row r="64">
-      <c r="A64" t="inlineStr"/>
-      <c r="B64" t="inlineStr"/>
-      <c r="C64" t="inlineStr"/>
-      <c r="D64" t="inlineStr"/>
-      <c r="E64" t="inlineStr"/>
-      <c r="F64" t="inlineStr"/>
-      <c r="G64" t="inlineStr"/>
-      <c r="H64" t="inlineStr"/>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr">
-        <is>
-          <t>KELLEY #09, BROADWAY MOBIL, ROCKFORD</t>
-        </is>
-      </c>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr"/>
-      <c r="N64" t="inlineStr"/>
-      <c r="O64" t="inlineStr"/>
-      <c r="P64" t="inlineStr"/>
-      <c r="Q64" t="inlineStr"/>
-      <c r="R64" t="inlineStr"/>
-      <c r="S64" t="inlineStr"/>
-      <c r="T64" t="inlineStr"/>
-      <c r="U64" t="inlineStr"/>
-      <c r="V64" t="inlineStr"/>
-      <c r="W64" t="inlineStr"/>
-      <c r="X64" t="inlineStr"/>
-      <c r="Y64" t="inlineStr"/>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr"/>
-      <c r="B65" t="inlineStr"/>
-      <c r="C65" t="inlineStr"/>
-      <c r="D65" t="inlineStr"/>
-      <c r="E65" t="inlineStr"/>
-      <c r="F65" t="inlineStr"/>
-      <c r="G65" t="inlineStr"/>
-      <c r="H65" t="inlineStr"/>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr">
-        <is>
-          <t>2605 BROADWAY</t>
-        </is>
-      </c>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr"/>
-      <c r="N65" t="inlineStr"/>
-      <c r="O65" t="inlineStr"/>
-      <c r="P65" t="inlineStr"/>
-      <c r="Q65" t="inlineStr"/>
-      <c r="R65" t="inlineStr"/>
-      <c r="S65" t="inlineStr"/>
-      <c r="T65" t="inlineStr"/>
-      <c r="U65" t="inlineStr"/>
-      <c r="V65" t="inlineStr"/>
-      <c r="W65" t="inlineStr"/>
-      <c r="X65" t="inlineStr"/>
-      <c r="Y65" t="inlineStr"/>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr"/>
-      <c r="B66" t="inlineStr"/>
-      <c r="C66" t="inlineStr"/>
-      <c r="D66" t="inlineStr"/>
-      <c r="E66" t="inlineStr"/>
-      <c r="F66" t="inlineStr"/>
-      <c r="G66" t="inlineStr"/>
-      <c r="H66" t="inlineStr"/>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/o8A3d3WmDrS2</t>
-        </is>
-      </c>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr"/>
-      <c r="N66" t="inlineStr"/>
-      <c r="O66" t="inlineStr"/>
-      <c r="P66" t="inlineStr"/>
-      <c r="Q66" t="inlineStr"/>
-      <c r="R66" t="inlineStr"/>
-      <c r="S66" t="inlineStr"/>
-      <c r="T66" t="inlineStr"/>
-      <c r="U66" t="inlineStr"/>
-      <c r="V66" t="inlineStr"/>
-      <c r="W66" t="inlineStr"/>
-      <c r="X66" t="inlineStr"/>
-      <c r="Y66" t="inlineStr"/>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr"/>
-      <c r="B67" t="inlineStr"/>
-      <c r="C67" t="inlineStr"/>
-      <c r="D67" t="inlineStr"/>
-      <c r="E67" t="inlineStr"/>
-      <c r="F67" t="inlineStr"/>
-      <c r="G67" t="inlineStr"/>
-      <c r="H67" t="inlineStr"/>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Please be careful to scan only product barcodes, and not the shelf scan tags </t>
-        </is>
-      </c>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr"/>
-      <c r="N67" t="inlineStr"/>
-      <c r="O67" t="inlineStr"/>
-      <c r="P67" t="inlineStr"/>
-      <c r="Q67" t="inlineStr"/>
-      <c r="R67" t="inlineStr"/>
-      <c r="S67" t="inlineStr"/>
-      <c r="T67" t="inlineStr"/>
-      <c r="U67" t="inlineStr"/>
-      <c r="V67" t="inlineStr"/>
-      <c r="W67" t="inlineStr"/>
-      <c r="X67" t="inlineStr"/>
-      <c r="Y67" t="inlineStr"/>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr"/>
-      <c r="B68" t="inlineStr"/>
-      <c r="C68" t="inlineStr"/>
-      <c r="D68" t="inlineStr"/>
-      <c r="E68" t="inlineStr"/>
-      <c r="F68" t="inlineStr"/>
-      <c r="G68" t="inlineStr"/>
-      <c r="H68" t="inlineStr"/>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr">
-        <is>
-          <t xml:space="preserve">*IL Meet is 6:15 am at IL office </t>
-        </is>
-      </c>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr"/>
-      <c r="N68" t="inlineStr"/>
-      <c r="O68" t="inlineStr"/>
-      <c r="P68" t="inlineStr"/>
-      <c r="Q68" t="inlineStr"/>
-      <c r="R68" t="inlineStr"/>
-      <c r="S68" t="inlineStr"/>
-      <c r="T68" t="inlineStr"/>
-      <c r="U68" t="inlineStr"/>
-      <c r="V68" t="inlineStr"/>
-      <c r="W68" t="inlineStr"/>
-      <c r="X68" t="inlineStr"/>
-      <c r="Y68" t="inlineStr"/>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr"/>
-      <c r="B69" t="inlineStr"/>
-      <c r="C69" t="inlineStr"/>
-      <c r="D69" t="inlineStr"/>
-      <c r="E69" t="inlineStr"/>
-      <c r="F69" t="inlineStr"/>
-      <c r="G69" t="inlineStr"/>
-      <c r="H69" t="inlineStr"/>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr">
-        <is>
-          <t>*Emily, Laci, Spencer - please meet at the office so we don't overload parking lot</t>
-        </is>
-      </c>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr"/>
-      <c r="N69" t="inlineStr"/>
-      <c r="O69" t="inlineStr"/>
-      <c r="P69" t="inlineStr"/>
-      <c r="Q69" t="inlineStr"/>
-      <c r="R69" t="inlineStr"/>
-      <c r="S69" t="inlineStr"/>
-      <c r="T69" t="inlineStr"/>
-      <c r="U69" t="inlineStr"/>
-      <c r="V69" t="inlineStr"/>
-      <c r="W69" t="inlineStr"/>
-      <c r="X69" t="inlineStr"/>
-      <c r="Y69" t="inlineStr"/>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr"/>
-      <c r="B70" t="inlineStr"/>
-      <c r="C70" t="inlineStr"/>
-      <c r="D70" t="inlineStr"/>
-      <c r="E70" t="inlineStr"/>
-      <c r="F70" t="inlineStr"/>
-      <c r="G70" t="inlineStr"/>
-      <c r="H70" t="inlineStr"/>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr"/>
-      <c r="N70" t="inlineStr"/>
-      <c r="O70" t="inlineStr"/>
-      <c r="P70" t="inlineStr"/>
-      <c r="Q70" t="inlineStr"/>
-      <c r="R70" t="inlineStr"/>
-      <c r="S70" t="inlineStr"/>
-      <c r="T70" t="inlineStr"/>
-      <c r="U70" t="inlineStr"/>
-      <c r="V70" t="inlineStr"/>
-      <c r="W70" t="inlineStr"/>
-      <c r="X70" t="inlineStr"/>
-      <c r="Y70" t="inlineStr"/>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr"/>
-      <c r="B71" t="inlineStr"/>
-      <c r="C71" t="inlineStr"/>
-      <c r="D71" t="inlineStr"/>
-      <c r="E71" t="inlineStr"/>
-      <c r="F71" t="inlineStr"/>
-      <c r="G71" t="inlineStr"/>
-      <c r="H71" t="inlineStr"/>
-      <c r="I71" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="J71" t="inlineStr">
-        <is>
-          <t>Mike G</t>
-        </is>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr"/>
-      <c r="N71" t="inlineStr"/>
-      <c r="O71" t="inlineStr"/>
-      <c r="P71" t="inlineStr"/>
-      <c r="Q71" t="inlineStr"/>
-      <c r="R71" t="inlineStr"/>
-      <c r="S71" t="inlineStr"/>
-      <c r="T71" t="inlineStr"/>
-      <c r="U71" t="inlineStr"/>
-      <c r="V71" t="inlineStr"/>
-      <c r="W71" t="inlineStr"/>
-      <c r="X71" t="inlineStr"/>
-      <c r="Y71" t="inlineStr"/>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr"/>
-      <c r="B72" t="inlineStr"/>
-      <c r="C72" t="inlineStr"/>
-      <c r="D72" t="inlineStr"/>
-      <c r="E72" t="inlineStr"/>
-      <c r="F72" t="inlineStr"/>
-      <c r="G72" t="inlineStr"/>
-      <c r="H72" t="inlineStr"/>
-      <c r="I72" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="J72" t="inlineStr">
-        <is>
-          <t>Emily L</t>
-        </is>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>Driver,
-Gray Van</t>
-        </is>
-      </c>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr"/>
-      <c r="N72" t="inlineStr"/>
-      <c r="O72" t="inlineStr"/>
-      <c r="P72" t="inlineStr"/>
-      <c r="Q72" t="inlineStr"/>
-      <c r="R72" t="inlineStr"/>
-      <c r="S72" t="inlineStr"/>
-      <c r="T72" t="inlineStr"/>
-      <c r="U72" t="inlineStr"/>
-      <c r="V72" t="inlineStr"/>
-      <c r="W72" t="inlineStr"/>
-      <c r="X72" t="inlineStr"/>
-      <c r="Y72" t="inlineStr"/>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr"/>
-      <c r="B73" t="inlineStr"/>
-      <c r="C73" t="inlineStr"/>
-      <c r="D73" t="inlineStr"/>
-      <c r="E73" t="inlineStr"/>
-      <c r="F73" t="inlineStr"/>
-      <c r="G73" t="inlineStr"/>
-      <c r="H73" t="inlineStr"/>
-      <c r="I73" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
-      <c r="J73" t="inlineStr">
-        <is>
-          <t>Laci</t>
-        </is>
-      </c>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr"/>
-      <c r="N73" t="inlineStr"/>
-      <c r="O73" t="inlineStr"/>
-      <c r="P73" t="inlineStr"/>
-      <c r="Q73" t="inlineStr"/>
-      <c r="R73" t="inlineStr"/>
-      <c r="S73" t="inlineStr"/>
-      <c r="T73" t="inlineStr"/>
-      <c r="U73" t="inlineStr"/>
-      <c r="V73" t="inlineStr"/>
-      <c r="W73" t="inlineStr"/>
-      <c r="X73" t="inlineStr"/>
-      <c r="Y73" t="inlineStr"/>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr"/>
-      <c r="B74" t="inlineStr"/>
-      <c r="C74" t="inlineStr"/>
-      <c r="D74" t="inlineStr"/>
-      <c r="E74" t="inlineStr"/>
-      <c r="F74" t="inlineStr"/>
-      <c r="G74" t="inlineStr"/>
-      <c r="H74" t="inlineStr"/>
-      <c r="I74" t="inlineStr">
-        <is>
-          <t>4)</t>
-        </is>
-      </c>
-      <c r="J74" t="inlineStr">
-        <is>
-          <t>Spencer P</t>
-        </is>
-      </c>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="inlineStr"/>
-      <c r="N74" t="inlineStr"/>
-      <c r="O74" t="inlineStr"/>
-      <c r="P74" t="inlineStr"/>
-      <c r="Q74" t="inlineStr"/>
-      <c r="R74" t="inlineStr"/>
-      <c r="S74" t="inlineStr"/>
-      <c r="T74" t="inlineStr"/>
-      <c r="U74" t="inlineStr"/>
-      <c r="V74" t="inlineStr"/>
-      <c r="W74" t="inlineStr"/>
-      <c r="X74" t="inlineStr"/>
-      <c r="Y74" t="inlineStr"/>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr"/>
-      <c r="B75" t="inlineStr"/>
-      <c r="C75" t="inlineStr"/>
-      <c r="D75" t="inlineStr"/>
-      <c r="E75" t="inlineStr"/>
-      <c r="F75" t="inlineStr"/>
-      <c r="G75" t="inlineStr"/>
-      <c r="H75" t="inlineStr"/>
-      <c r="I75" t="inlineStr">
-        <is>
-          <t>5)</t>
-        </is>
-      </c>
-      <c r="J75" t="inlineStr">
-        <is>
-          <t>Tina E</t>
-        </is>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="inlineStr"/>
-      <c r="N75" t="inlineStr"/>
-      <c r="O75" t="inlineStr"/>
-      <c r="P75" t="inlineStr"/>
-      <c r="Q75" t="inlineStr"/>
-      <c r="R75" t="inlineStr"/>
-      <c r="S75" t="inlineStr"/>
-      <c r="T75" t="inlineStr"/>
-      <c r="U75" t="inlineStr"/>
-      <c r="V75" t="inlineStr"/>
-      <c r="W75" t="inlineStr"/>
-      <c r="X75" t="inlineStr"/>
-      <c r="Y75" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/07-13-25 to 07-19-25 Madison Schedule.xlsx
+++ b/07-13-25 to 07-19-25 Madison Schedule.xlsx
@@ -1395,7 +1395,7 @@
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Elijah</t>
         </is>
       </c>
       <c r="S20" t="inlineStr"/>
@@ -1471,7 +1471,7 @@
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>Evelin</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="S21" t="inlineStr"/>
@@ -1547,15 +1547,10 @@
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
-        </is>
-      </c>
-      <c r="S22" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Gray Van</t>
-        </is>
-      </c>
+          <t>Evelin</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr"/>
       <c r="T22" t="inlineStr"/>
       <c r="U22" t="inlineStr">
         <is>
@@ -1629,7 +1624,7 @@
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Justin Lee</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
@@ -1714,13 +1709,13 @@
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>Nate</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
         <is>
           <t>Driver, 1/2
-Optima</t>
+Gray Van</t>
         </is>
       </c>
       <c r="T24" t="inlineStr"/>
@@ -1792,12 +1787,13 @@
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>Caitlin</t>
+          <t>Nate</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>Driver, 1/2
+Optima</t>
         </is>
       </c>
       <c r="T25" t="inlineStr"/>
@@ -1868,7 +1864,7 @@
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>Caitlin</t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
@@ -1949,7 +1945,7 @@
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>Greg</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">

--- a/07-13-25 to 07-19-25 Madison Schedule.xlsx
+++ b/07-13-25 to 07-19-25 Madison Schedule.xlsx
@@ -1615,7 +1615,11 @@
           <t>Justin Lee</t>
         </is>
       </c>
-      <c r="O23" t="inlineStr"/>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>Train w/ Nate</t>
+        </is>
+      </c>
       <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr">
         <is>

--- a/07-13-25 to 07-19-25 Madison Schedule.xlsx
+++ b/07-13-25 to 07-19-25 Madison Schedule.xlsx
@@ -1162,12 +1162,12 @@
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>Nate</t>
         </is>
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>@ Store, Equip</t>
+          <t>@ Store, Optima, Equip</t>
         </is>
       </c>
       <c r="X17" t="inlineStr"/>
@@ -1407,7 +1407,7 @@
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="W20" t="inlineStr"/>
@@ -1483,14 +1483,10 @@
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>Lori</t>
-        </is>
-      </c>
-      <c r="W21" t="inlineStr">
-        <is>
-          <t>Driver 1/2</t>
-        </is>
-      </c>
+          <t>Justin Lee</t>
+        </is>
+      </c>
+      <c r="W21" t="inlineStr"/>
       <c r="X21" t="inlineStr"/>
       <c r="Y21" t="inlineStr"/>
     </row>
@@ -1559,10 +1555,14 @@
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>Nate</t>
-        </is>
-      </c>
-      <c r="W22" t="inlineStr"/>
+          <t>Lori</t>
+        </is>
+      </c>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>Driver 1/2</t>
+        </is>
+      </c>
       <c r="X22" t="inlineStr"/>
       <c r="Y22" t="inlineStr"/>
     </row>
